--- a/trend_results/Contact_Recreation/WaikawaEstuaryatFootbridge_6787480d5e.xlsx
+++ b/trend_results/Contact_Recreation/WaikawaEstuaryatFootbridge_6787480d5e.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/trend_results/Contact_Recreation/WaikawaEstuaryatFootbridge_6787480d5e.xlsx
+++ b/trend_results/Contact_Recreation/WaikawaEstuaryatFootbridge_6787480d5e.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>site name</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>RepSite</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
@@ -473,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,19 +558,19 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2">
-        <v>0.08036638394057651</v>
+        <v>0.460155612723509</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.8389830508474579</v>
+        <v>0.845528455284553</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -582,16 +579,16 @@
         <v>295</v>
       </c>
       <c r="K2">
-        <v>20.6512658227848</v>
+        <v>4.34990047189291</v>
       </c>
       <c r="L2">
-        <v>-3.47920703016865</v>
+        <v>-25.7904687628843</v>
       </c>
       <c r="M2">
-        <v>42.2816875359412</v>
+        <v>25.3543911642211</v>
       </c>
       <c r="N2">
-        <v>7.00042909246943</v>
+        <v>1.47454253284505</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -606,19 +603,19 @@
         <v>5493686</v>
       </c>
       <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>32</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -638,37 +635,37 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>0.431248545243191</v>
+        <v>0.62694201118718</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.004149377593361</v>
       </c>
       <c r="H3">
-        <v>0.699588477366255</v>
+        <v>0.717842323651452</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K3">
-        <v>0.836578103527256</v>
+        <v>-1.47415526824916</v>
       </c>
       <c r="L3">
-        <v>-8.350207297666509</v>
+        <v>-10.9104111058204</v>
       </c>
       <c r="M3">
-        <v>10.7426470588235</v>
+        <v>7.50877726911795</v>
       </c>
       <c r="N3">
-        <v>0.278859367842419</v>
+        <v>-0.499713650253954</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3">
         <v>1781483</v>
@@ -677,19 +674,90 @@
         <v>5493686</v>
       </c>
       <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
         <v>29</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>30</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>31</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>32</v>
       </c>
-      <c r="W3" t="s">
-        <v>33</v>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>0.331268353323515</v>
+      </c>
+      <c r="G4">
+        <v>0.0058479532163742</v>
+      </c>
+      <c r="H4">
+        <v>0.637426900584795</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>295</v>
+      </c>
+      <c r="K4">
+        <v>1.37151092393431</v>
+      </c>
+      <c r="L4">
+        <v>-3.83858013803576</v>
+      </c>
+      <c r="M4">
+        <v>7.02403846153846</v>
+      </c>
+      <c r="N4">
+        <v>0.464918957265867</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4">
+        <v>1781483</v>
+      </c>
+      <c r="R4">
+        <v>5493686</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
